--- a/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\SouthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C0FD7-2454-4B66-90A7-3F464FF2800E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED6AE5-E791-4D4A-ADFB-D2CD5B47C4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -872,9 +872,6 @@
     <t>COUNTY_1</t>
   </si>
   <si>
-    <t>BASIN</t>
-  </si>
-  <si>
     <t>It would be nice to have the list of translated abbrevations for watersources &amp; site information.</t>
   </si>
   <si>
@@ -930,6 +927,21 @@
   </si>
   <si>
     <t>HYDROUNIT1</t>
+  </si>
+  <si>
+    <t>tweaked lats name entry to not contain "CITY OF", but first name entry does.</t>
+  </si>
+  <si>
+    <t>Removed commas form last and first name, repace with &amp;.</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1717,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2009,6 +2021,18 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2368,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,17 +2434,27 @@
         <v>251</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="97" t="s">
+        <v>297</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -2569,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -2601,7 +2635,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -2633,7 +2667,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>38</v>
@@ -2665,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>38</v>
@@ -2697,7 +2731,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -2727,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -2759,7 +2793,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -2791,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -2926,7 +2960,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -2986,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -3178,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -3210,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>38</v>
@@ -3241,7 +3275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3662,7 +3696,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3757,7 +3791,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -3787,7 +3821,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3817,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3876,12 +3910,14 @@
       <c r="D8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="42" t="s">
         <v>264</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="75" t="s">
@@ -3905,7 +3941,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3921,7 +3957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>43</v>
       </c>
@@ -3935,13 +3971,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>38</v>
+        <v>269</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="H10" s="82"/>
       <c r="I10" s="75" t="s">
@@ -3972,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4072,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -4102,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -4132,7 +4168,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -4222,7 +4258,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -4250,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -4280,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -4316,7 +4352,7 @@
         <v>264</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="81" t="s">
@@ -4400,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>38</v>
@@ -4430,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>38</v>
@@ -4486,13 +4522,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>270</v>
+        <v>282</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="79" t="s">
@@ -4516,7 +4552,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>38</v>
@@ -4546,7 +4582,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>38</v>
@@ -4576,13 +4612,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>264</v>
+        <v>282</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="79" t="s">
@@ -4636,7 +4672,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>38</v>
@@ -4663,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4923,7 +4959,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -4987,7 +5023,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5019,7 +5055,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5051,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>38</v>
@@ -5083,7 +5119,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>38</v>
@@ -5115,7 +5151,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5147,7 +5183,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5179,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5211,7 +5247,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5243,7 +5279,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5275,7 +5311,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5307,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5409,7 +5445,7 @@
         <v>264</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H24" s="87" t="s">
         <v>38</v>
@@ -5435,7 +5471,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>264</v>
@@ -5499,7 +5535,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>38</v>
@@ -5531,7 +5567,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -5563,7 +5599,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -5595,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F30" s="46" t="s">
         <v>38</v>
@@ -5627,7 +5663,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -5677,7 +5713,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>101</v>
       </c>
@@ -5691,7 +5727,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>38</v>
@@ -5709,7 +5745,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>98</v>
       </c>
@@ -5723,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5741,7 +5777,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>100</v>
       </c>
@@ -5755,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5773,7 +5809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>154</v>
       </c>
@@ -5805,7 +5841,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>82</v>
       </c>
@@ -5819,7 +5855,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>38</v>
@@ -5837,7 +5873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="72" t="s">
         <v>245</v>
       </c>
@@ -5863,7 +5899,7 @@
       <c r="I38" s="90"/>
       <c r="J38" s="83"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>90</v>
       </c>
@@ -5877,7 +5913,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
@@ -5895,7 +5931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>91</v>
       </c>
@@ -5925,7 +5961,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
         <v>99</v>
       </c>
@@ -5939,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
@@ -5957,7 +5993,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>96</v>
       </c>
@@ -5971,7 +6007,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -5989,53 +6025,53 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="J43" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B44" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>38</v>
@@ -6046,80 +6082,112 @@
       <c r="H44" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="79" t="s">
+      <c r="F46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="76" t="s">
+      <c r="J46" s="76" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B47" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="79" t="s">
+      <c r="D47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="76" t="s">
+      <c r="J47" s="76" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\SouthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ED6AE5-E791-4D4A-ADFB-D2CD5B47C4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A694DEAB-8C1A-4E59-BBE8-25AB09FBCE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -485,9 +485,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -803,9 +800,6 @@
     <t>Ron.Duvall@state.sd.us</t>
   </si>
   <si>
-    <t>SDDENR</t>
-  </si>
-  <si>
     <t>https://denr.sd.gov/</t>
   </si>
   <si>
@@ -878,9 +872,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>SD_Water Allocation</t>
-  </si>
-  <si>
     <t>Water Rights</t>
   </si>
   <si>
@@ -896,9 +887,6 @@
     <t xml:space="preserve"> Consumptive Use</t>
   </si>
   <si>
-    <t>SD_Consumptive Use</t>
-  </si>
-  <si>
     <t>Water Year or Calendear Year?</t>
   </si>
   <si>
@@ -942,6 +930,24 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>SDwr_M1</t>
+  </si>
+  <si>
+    <t>SDwr_V1</t>
+  </si>
+  <si>
+    <t>SDwr_O1</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>SDwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1723,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2033,6 +2039,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2404,57 +2413,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="97" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="97" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2477,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2510,10 +2519,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2554,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2571,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -2583,10 +2592,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2603,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -2618,7 +2627,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2635,7 +2644,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -2650,7 +2659,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2667,7 +2676,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>38</v>
@@ -2682,7 +2691,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2699,7 +2708,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>38</v>
@@ -2711,10 +2720,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,7 +2740,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -2744,7 +2753,7 @@
       </c>
       <c r="I9" s="79"/>
       <c r="J9" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2761,7 +2770,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -2776,7 +2785,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2793,7 +2802,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="100" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -2808,7 +2817,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2825,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -2840,7 +2849,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2905,10 +2914,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2943,7 +2952,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2960,7 +2969,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -2975,7 +2984,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3003,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3020,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -3035,7 +3044,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3067,7 +3076,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3099,7 +3108,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3131,7 +3140,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3163,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3195,7 +3204,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3212,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -3227,7 +3236,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3244,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>38</v>
@@ -3259,7 +3268,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3275,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3318,10 +3327,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3362,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3379,7 +3388,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3394,7 +3403,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3411,7 +3420,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3426,7 +3435,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3443,7 +3452,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -3458,7 +3467,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3475,7 +3484,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>38</v>
@@ -3490,7 +3499,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
@@ -3507,7 +3516,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>38</v>
@@ -3522,7 +3531,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3539,7 +3548,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -3554,7 +3563,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="108" x14ac:dyDescent="0.3">
@@ -3571,7 +3580,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -3586,7 +3595,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3603,7 +3612,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="103" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -3618,7 +3627,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3635,7 +3644,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -3650,7 +3659,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3738,10 +3747,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3774,7 +3783,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3791,7 +3800,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -3804,7 +3813,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3821,7 +3830,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3834,7 +3843,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3851,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3864,7 +3873,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3894,7 +3903,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3914,17 +3923,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3941,7 +3950,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3954,7 +3963,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3971,20 +3980,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H10" s="82"/>
       <c r="I10" s="75" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4008,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4051,10 +4060,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4093,7 +4102,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4108,7 +4117,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -4121,7 +4130,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4138,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -4151,7 +4160,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4168,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -4181,7 +4190,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4201,17 +4210,17 @@
         <v>38</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H7" s="80"/>
       <c r="I7" s="81" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4241,7 +4250,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4258,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -4269,7 +4278,7 @@
       <c r="H9" s="80"/>
       <c r="I9" s="79"/>
       <c r="J9" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4286,7 +4295,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -4299,7 +4308,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4316,7 +4325,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -4329,7 +4338,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4349,17 +4358,17 @@
         <v>38</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="81" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4379,17 +4388,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H13" s="84"/>
       <c r="I13" s="79" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4409,17 +4418,17 @@
         <v>38</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H14" s="84"/>
       <c r="I14" s="79">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4436,7 +4445,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>38</v>
@@ -4449,7 +4458,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4466,7 +4475,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>38</v>
@@ -4479,12 +4488,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4496,7 +4505,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -4506,7 +4515,7 @@
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="85"/>
     </row>
@@ -4522,7 +4531,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -4535,7 +4544,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4552,7 +4561,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>38</v>
@@ -4565,7 +4574,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4582,7 +4591,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>38</v>
@@ -4595,7 +4604,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4612,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4625,7 +4634,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4642,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" s="46" t="s">
         <v>38</v>
@@ -4655,7 +4664,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4672,7 +4681,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>38</v>
@@ -4685,7 +4694,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4699,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4744,10 +4753,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4782,7 +4791,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4814,7 +4823,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4846,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4878,7 +4887,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4910,7 +4919,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4942,15 +4951,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -4958,28 +4967,18 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>189</v>
-      </c>
+      <c r="E9" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>67</v>
@@ -4990,8 +4989,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="101" t="s">
-        <v>254</v>
+      <c r="E10" s="102" t="s">
+        <v>297</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5006,12 +5005,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -5022,8 +5021,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>289</v>
+      <c r="E11" s="101" t="s">
+        <v>299</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5038,12 +5037,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>67</v>
@@ -5054,7 +5053,7 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="42" t="s">
         <v>285</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -5070,88 +5069,88 @@
         <v>38</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B14" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="C14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="70" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="79">
-        <v>5363</v>
+      <c r="I14" s="88" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5162,16 +5161,16 @@
       <c r="H15" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="83" t="s">
-        <v>159</v>
+      <c r="I15" s="79">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -5183,7 +5182,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5198,24 +5197,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5227,27 +5226,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5259,18 +5258,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="83" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>18</v>
@@ -5279,7 +5278,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5291,18 +5290,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="76" t="s">
-        <v>194</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>18</v>
@@ -5311,7 +5310,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5322,28 +5321,28 @@
       <c r="H20" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="83" t="s">
-        <v>159</v>
+      <c r="I20" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="76" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5354,220 +5353,220 @@
       <c r="H21" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="79">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="76" t="s">
-        <v>195</v>
+      <c r="I21" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="72" t="s">
-        <v>243</v>
+      <c r="A22" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>262</v>
+        <v>276</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="H22" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="79">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="72" t="s">
+        <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="79" t="s">
-        <v>136</v>
+      <c r="I23" s="79">
+        <v>1</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="F24" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="48" t="s">
-        <v>291</v>
-      </c>
       <c r="H24" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="B26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="H26" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>18</v>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>263</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="88" t="s">
-        <v>38</v>
+      <c r="I27" s="79" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -5578,16 +5577,16 @@
       <c r="H28" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="89">
-        <v>44196</v>
+      <c r="I28" s="88" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>106</v>
@@ -5599,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -5611,155 +5610,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="89">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="79" t="s">
-        <v>133</v>
+      <c r="I30" s="89">
+        <v>43831</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="72" t="s">
-        <v>244</v>
+      <c r="A31" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="47" t="s">
         <v>38</v>
       </c>
       <c r="H31" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="79">
         <v>0</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>38</v>
+        <v>270</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>269</v>
       </c>
       <c r="H33" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5773,13 +5772,13 @@
       <c r="I34" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="76" t="s">
-        <v>231</v>
+      <c r="J34" s="83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5791,7 +5790,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5806,24 +5805,24 @@
         <v>133</v>
       </c>
       <c r="J35" s="76" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="71">
-        <v>44215</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -5834,51 +5833,51 @@
       <c r="H36" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="90">
-        <v>43874</v>
+      <c r="I36" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="76" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="71">
+        <v>44215</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="90">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="90">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>18</v>
@@ -5886,54 +5885,54 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="90">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="83"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>278</v>
-      </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="76" t="s">
-        <v>206</v>
-      </c>
+      <c r="H39" s="87"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -5945,69 +5944,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>264</v>
+        <v>276</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H40" s="84"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="87" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="88" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>38</v>
+        <v>38</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>262</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="79" t="s">
-        <v>133</v>
+        <v>261</v>
+      </c>
+      <c r="H41" s="84"/>
+      <c r="I41" s="88" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6018,92 +6017,92 @@
       <c r="H42" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="I42" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="106" t="s">
-        <v>299</v>
-      </c>
-      <c r="J43" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="76" t="s">
-        <v>208</v>
-      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6114,28 +6113,28 @@
       <c r="H45" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="83" t="s">
-        <v>159</v>
+      <c r="I45" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="76" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6147,47 +6146,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="76" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="79" t="s">
+      <c r="D48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="76" t="s">
-        <v>210</v>
+      <c r="J48" s="76" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/SouthDakota/WaterAllocation/SD_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\SouthDakota\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A694DEAB-8C1A-4E59-BBE8-25AB09FBCE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C99136F-067B-425F-9A7A-67F220B3AEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -872,9 +872,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
     <t>Surface Ground Water</t>
   </si>
   <si>
@@ -948,6 +945,19 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>https://danr.sd.gov/OfficeOfWater/WaterRights/docs/WRAPPLPrimer.pdf</t>
+  </si>
+  <si>
+    <t>WATER RIGHTS METHOD: South Dakaotra water rights are described in the provdied method link
+DISCLAIMER: The above map dataset is incomplete. There are water permits/rights not included because coordinates for the location have not been established due to the lack of a proper legal description. This is often true of very old filings which did not reference a specific section, township and range. Each water permit/right shown on the map is represented by a single diversion point (pumping location) even though the permit/right may have multiple diversion points. Most of the points shown on the map are calculated values and do NOT represent a precise location of the diversion point. Any reliance on the map results is solely at the user's discretion.</t>
+  </si>
+  <si>
+    <t>South Dakakota Water Rights Method</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -957,7 +967,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,6 +1216,13 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1723,7 +1740,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1842,9 +1859,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,15 +1868,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1962,13 +1973,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2016,9 +2021,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2040,7 +2042,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2407,63 +2427,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79" style="97" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" style="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="93" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="93" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="94" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="93" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="93" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="97" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="89" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="97" t="s">
-        <v>282</v>
+      <c r="B18" s="93" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2476,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,7 +2506,7 @@
     <col min="2" max="2" width="12.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="35" bestFit="1" customWidth="1"/>
@@ -2496,32 +2516,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2547,54 +2567,54 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="75">
+      <c r="E3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="73">
         <v>11</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2612,21 +2632,21 @@
         <v>20</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2643,22 +2663,22 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="77">
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="75">
         <v>0.5</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="74" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2675,22 +2695,22 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="76" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="74" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2707,163 +2727,166 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="78" t="s">
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:10" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="76" t="s">
+      <c r="C9" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="74" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="75" t="s">
+      <c r="C10" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="74" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="D11" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="74" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="E12" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="74" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="91"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="91"/>
+      <c r="E17" s="87"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{3728B7DB-850B-4B59-8E41-88BF9EFC93E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2945,13 +2968,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="75">
+      <c r="H3" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="73">
         <v>16</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2968,8 +2991,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="94" t="s">
-        <v>298</v>
+      <c r="E4" s="90" t="s">
+        <v>297</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -2977,13 +3000,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3000,18 +3023,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="91">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="75">
+      <c r="H5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="73">
         <v>1</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3028,22 +3051,22 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="75" t="s">
+      <c r="E6" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="74" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3060,22 +3083,22 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="75" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="74" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3092,22 +3115,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="75" t="s">
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3124,22 +3147,22 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="75" t="s">
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3156,22 +3179,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="91">
         <v>11</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="75">
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="73">
         <v>10</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="74" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3188,22 +3211,22 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="75" t="s">
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="74" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3220,22 +3243,22 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="75" t="s">
+      <c r="E12" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="74" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3252,22 +3275,22 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="75" t="s">
+      <c r="E13" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="74" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3285,7 +3308,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,7 +3317,7 @@
     <col min="2" max="2" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
@@ -3364,13 +3387,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="79">
+      <c r="H3" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="77">
         <v>1</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3387,8 +3410,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>299</v>
+      <c r="E4" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3396,13 +3419,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="79" t="s">
+      <c r="H4" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3419,7 +3442,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="95" t="s">
         <v>252</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3428,13 +3451,13 @@
       <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="79" t="s">
+      <c r="H5" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3451,22 +3474,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="74" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3483,22 +3506,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="79" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="74" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3515,22 +3538,22 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="79" t="s">
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3547,22 +3570,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3579,22 +3602,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="79" t="s">
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="74" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3611,22 +3634,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="79" t="s">
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="74" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3646,19 +3669,19 @@
       <c r="E12" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="79" t="s">
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="74" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3724,32 +3747,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3777,42 +3800,42 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="75">
+      <c r="G3" s="63"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73">
         <v>34658</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="75" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3829,20 +3852,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="76" t="s">
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3859,20 +3882,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="76" t="s">
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3889,20 +3912,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="75" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="74" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3922,17 +3945,17 @@
       <c r="E8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="75" t="s">
+      <c r="H8" s="78"/>
+      <c r="I8" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3950,19 +3973,19 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="75">
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73">
         <v>17839</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="74" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3982,17 +4005,17 @@
       <c r="E10" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>262</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="75" t="s">
+      <c r="H10" s="78"/>
+      <c r="I10" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="74" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4037,32 +4060,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4097,39 +4120,39 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="79">
+      <c r="H3" s="72"/>
+      <c r="I3" s="77">
         <v>39035</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="79" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4147,19 +4170,19 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4177,19 +4200,19 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="74" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4209,17 +4232,17 @@
       <c r="E7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="83" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4236,20 +4259,20 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="79" t="s">
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4269,15 +4292,15 @@
       <c r="E9" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="76" t="s">
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="74" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4297,17 +4320,17 @@
       <c r="E10" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="76" t="s">
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="72"/>
+      <c r="I10" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4327,17 +4350,17 @@
       <c r="E11" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="83" t="s">
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4357,17 +4380,17 @@
       <c r="E12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="83" t="s">
+      <c r="G12" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="H12" s="72"/>
+      <c r="I12" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4387,17 +4410,17 @@
       <c r="E13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="79" t="s">
+      <c r="H13" s="80"/>
+      <c r="I13" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="74" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4417,17 +4440,17 @@
       <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="79">
+      <c r="H14" s="80"/>
+      <c r="I14" s="77">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="74" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4447,17 +4470,17 @@
       <c r="E15" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="76" t="s">
+      <c r="F15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="74" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4477,17 +4500,17 @@
       <c r="E16" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="76" t="s">
+      <c r="F16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="74" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4504,20 +4527,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="41" t="s">
         <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86" t="s">
+      <c r="G17" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="J17" s="85"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -4531,19 +4554,19 @@
         <v>38</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="79" t="s">
+      <c r="G18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="74" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4561,19 +4584,19 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="79">
+        <v>278</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="77">
         <v>3703994</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="74" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4593,17 +4616,17 @@
       <c r="E20" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="79" t="s">
+      <c r="F20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4621,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -4629,11 +4652,11 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="79" t="s">
+      <c r="H21" s="72"/>
+      <c r="I21" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="76" t="s">
+      <c r="J21" s="74" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4653,17 +4676,17 @@
       <c r="E22" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="79" t="s">
+      <c r="F22" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="74" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4683,17 +4706,17 @@
       <c r="E23" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="83" t="s">
+      <c r="F23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4710,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -4730,32 +4753,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4784,13 +4807,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="79">
+      <c r="H3" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="77">
         <v>50004</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4816,13 +4839,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="79">
+      <c r="H4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="77">
         <v>43</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4848,13 +4871,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="79">
+      <c r="H5" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="77">
         <v>1</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4880,13 +4903,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="79">
+      <c r="H6" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="77">
         <v>39035</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4912,13 +4935,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="79">
+      <c r="H7" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="77">
         <v>63</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4944,19 +4967,19 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="79">
+      <c r="H8" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="77">
         <v>371091</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="74" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -4967,14 +4990,14 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="108" t="s">
-        <v>301</v>
+      <c r="E9" s="41" t="s">
+        <v>300</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="76"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -4989,8 +5012,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>297</v>
+      <c r="E10" s="97" t="s">
+        <v>296</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -4998,13 +5021,13 @@
       <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="76" t="s">
+      <c r="H10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="74" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5021,8 +5044,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="101" t="s">
-        <v>299</v>
+      <c r="E11" s="96" t="s">
+        <v>298</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5030,13 +5053,13 @@
       <c r="G11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="76" t="s">
+      <c r="H11" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5053,8 +5076,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>285</v>
+      <c r="E12" s="41" t="s">
+        <v>284</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5062,13 +5085,13 @@
       <c r="G12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="76" t="s">
+      <c r="H12" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="74" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5085,8 +5108,8 @@
       <c r="D13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>298</v>
+      <c r="E13" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5094,45 +5117,45 @@
       <c r="G13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="76" t="s">
+      <c r="H13" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="74" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="76" t="s">
+      <c r="C14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="74" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5158,13 +5181,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="79">
+      <c r="H15" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="77">
         <v>5363</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="74" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5190,13 +5213,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="79" t="s">
+      <c r="H16" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5222,13 +5245,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="79" t="s">
+      <c r="H17" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5254,13 +5277,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="79" t="s">
+      <c r="H18" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="74" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5286,13 +5309,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="79" t="s">
+      <c r="H19" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="83" t="s">
+      <c r="J19" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5318,13 +5341,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="79" t="s">
+      <c r="H20" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="74" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5350,13 +5373,13 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="83" t="s">
+      <c r="H21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5382,18 +5405,18 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="79">
+      <c r="H22" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="77">
         <v>5200</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="74" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="70" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -5408,19 +5431,19 @@
       <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="H23" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="79">
+      <c r="H23" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="77">
         <v>1</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="74" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5440,19 +5463,19 @@
       <c r="E24" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>262</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="H24" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="79" t="s">
+      <c r="H24" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="76" t="s">
+      <c r="J24" s="74" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5472,19 +5495,19 @@
       <c r="E25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="H25" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="79" t="s">
+      <c r="G25" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="76" t="s">
+      <c r="J25" s="74" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5502,21 +5525,21 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="79" t="s">
+      <c r="H26" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5527,7 +5550,7 @@
       <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -5536,19 +5559,19 @@
       <c r="E27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="79" t="s">
+      <c r="H27" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="74" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5574,13 +5597,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="76" t="s">
+      <c r="H28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="74" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5598,7 +5621,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -5606,13 +5629,13 @@
       <c r="G29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="89">
+      <c r="H29" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="85">
         <v>44196</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="74" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5630,7 +5653,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -5638,13 +5661,13 @@
       <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="89">
+      <c r="H30" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="85">
         <v>43831</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J30" s="74" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5662,26 +5685,26 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="J31" s="74" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="70" t="s">
         <v>243</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -5702,13 +5725,13 @@
       <c r="G32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="79">
+      <c r="H32" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="77">
         <v>0</v>
       </c>
-      <c r="J32" s="76" t="s">
+      <c r="J32" s="74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5719,7 +5742,7 @@
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
@@ -5728,19 +5751,19 @@
       <c r="E33" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="H33" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="76" t="s">
+      <c r="H33" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="74" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5766,13 +5789,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="79" t="s">
+      <c r="H34" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="79" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5798,13 +5821,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="79" t="s">
+      <c r="H35" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="74" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5830,13 +5853,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="79" t="s">
+      <c r="H36" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="76" t="s">
+      <c r="J36" s="74" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5847,13 +5870,13 @@
       <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="69">
         <v>44215</v>
       </c>
       <c r="F37" s="24" t="s">
@@ -5862,13 +5885,13 @@
       <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="90">
+      <c r="H37" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="86">
         <v>43874</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="74" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5894,18 +5917,18 @@
       <c r="G38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="90">
+      <c r="H38" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="86">
         <v>33187</v>
       </c>
-      <c r="J38" s="83" t="s">
+      <c r="J38" s="79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="70" t="s">
         <v>244</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -5926,9 +5949,9 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="79"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
@@ -5952,13 +5975,13 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="76" t="s">
+      <c r="H40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="74" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5978,17 +6001,17 @@
       <c r="E41" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="41" t="s">
         <v>262</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="76" t="s">
+      <c r="H41" s="80"/>
+      <c r="I41" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="74" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6014,13 +6037,13 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="79" t="s">
+      <c r="H42" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="76" t="s">
+      <c r="J42" s="74" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6046,19 +6069,19 @@
       <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="83" t="s">
+      <c r="H43" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6071,15 +6094,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="106" t="s">
+      <c r="G44" s="99"/>
+      <c r="H44" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="101" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" s="102" t="s">
         <v>295</v>
-      </c>
-      <c r="J44" s="107" t="s">
-        <v>296</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6110,13 +6133,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="76" t="s">
+      <c r="H45" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="74" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6142,19 +6165,19 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="79" t="s">
+      <c r="H46" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="83" t="s">
+      <c r="J46" s="79" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>105</v>
@@ -6174,13 +6197,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="79" t="s">
+      <c r="H47" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="74" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6206,13 +6229,13 @@
       <c r="G48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="79" t="s">
+      <c r="H48" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="76" t="s">
+      <c r="J48" s="74" t="s">
         <v>209</v>
       </c>
     </row>
